--- a/MedicalLink/Templates/BC_120_ThuThuatDVKTYC.xlsx
+++ b/MedicalLink/Templates/BC_120_ThuThuatDVKTYC.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>&amp;=[DATA1].ISGROUP</t>
+  </si>
+  <si>
+    <t>Đơn giá chênh</t>
+  </si>
+  <si>
+    <t>Thành tiền chênh</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DONGIA_CHENH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].THANHTIEN_CHENH</t>
   </si>
 </sst>
 </file>
@@ -339,7 +351,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -633,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,13 +679,13 @@
     <col min="2" max="2" width="36.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="12" width="13.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="14" width="13.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
@@ -666,8 +700,10 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -682,8 +718,10 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="18" t="s">
@@ -696,8 +734,10 @@
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>0</v>
       </c>
@@ -714,28 +754,34 @@
         <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -752,31 +798,37 @@
         <v>27</v>
       </c>
       <c r="F6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="O6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
@@ -787,15 +839,12 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
-        <f t="shared" ref="E7:L7" si="0">SUM(E6:E6)/2</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="E7:N7" si="0">SUM(E6:E6)/2</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G7" si="1">SUM(G6:G6)/2</f>
         <v>0</v>
       </c>
       <c r="H7" s="9">
@@ -818,34 +867,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="2" t="s">
+      <c r="M7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="6"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="6"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
@@ -857,18 +918,23 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A6:L6">
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>$M6=1</formula>
+  <conditionalFormatting sqref="A6:E6 H6:N6">
+    <cfRule type="expression" dxfId="2" priority="7" stopIfTrue="1">
+      <formula>$O6=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:G6">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$O6=1</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
